--- a/biology/Zoologie/Conus_vappereaui/Conus_vappereaui.xlsx
+++ b/biology/Zoologie/Conus_vappereaui/Conus_vappereaui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus vappereaui est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 40 mm et 60 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans l'océan Pacifique au large de Tahiti et Tuamotu.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus vappereaui a été décrite pour la première fois en 2009 par le malacologiste António Monteiro dans « Visaya »[1],[2].
-Synonymes
-Conus (Phasmoconus) vappereaui Monteiro, 2009 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus vappereaui a été décrite pour la première fois en 2009 par le malacologiste António Monteiro dans « Visaya »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_vappereaui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_vappereaui</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Phasmoconus) vappereaui Monteiro, 2009 · appellation alternative
 Conus moluccensis vappereaui Monteiro, 2009 · non accepté
 Fulgiconus vappereaui (Monteiro, 2009) · non accepté
 Phasmoconus vappereaui (Monteiro, 2009) · non accepté</t>
